--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -5733,11 +5733,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:DD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AX2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="BF14" sqref="BF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
